--- a/labeldata/负样本2.xlsx
+++ b/labeldata/负样本2.xlsx
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,75 +93,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,11 +131,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,11 +200,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,9 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,31 +282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,25 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,19 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +437,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,69 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -545,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,13 +1040,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1034"/>
+  <dimension ref="A1:Q1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1016" workbookViewId="0">
+      <selection activeCell="J1024" sqref="J1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="9.375"/>
+    <col min="8" max="8" width="9.375"/>
+    <col min="9" max="12" width="12.625"/>
+    <col min="14" max="14" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -55847,6 +55853,271 @@
         <v>-1</v>
       </c>
       <c r="Q1034" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:17">
+      <c r="A1035">
+        <v>1920</v>
+      </c>
+      <c r="B1035">
+        <v>5400</v>
+      </c>
+      <c r="C1035">
+        <v>1</v>
+      </c>
+      <c r="D1035">
+        <v>1</v>
+      </c>
+      <c r="E1035">
+        <v>679.899999999946</v>
+      </c>
+      <c r="F1035">
+        <v>-1207.72999999999</v>
+      </c>
+      <c r="G1035">
+        <v>1580.15000000006</v>
+      </c>
+      <c r="H1035">
+        <v>-2819.67000000001</v>
+      </c>
+      <c r="I1035">
+        <v>135.622361770364</v>
+      </c>
+      <c r="J1035">
+        <v>3.37763822963526</v>
+      </c>
+      <c r="K1035">
+        <v>3.26637750426127</v>
+      </c>
+      <c r="L1035">
+        <v>4.26637750426127</v>
+      </c>
+      <c r="M1035">
+        <v>12.7</v>
+      </c>
+      <c r="N1035">
+        <v>12.900001</v>
+      </c>
+      <c r="O1035">
+        <v>12.7</v>
+      </c>
+      <c r="P1035">
+        <v>-1</v>
+      </c>
+      <c r="Q1035" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:17">
+      <c r="A1036">
+        <v>3840</v>
+      </c>
+      <c r="B1036">
+        <v>3960</v>
+      </c>
+      <c r="C1036">
+        <v>1</v>
+      </c>
+      <c r="D1036">
+        <v>1</v>
+      </c>
+      <c r="E1036">
+        <v>1450.40000000001</v>
+      </c>
+      <c r="F1036">
+        <v>-2275.55000000002</v>
+      </c>
+      <c r="G1036">
+        <v>1230.29999999999</v>
+      </c>
+      <c r="H1036">
+        <v>-2182.90999999997</v>
+      </c>
+      <c r="I1036">
+        <v>132.487200354946</v>
+      </c>
+      <c r="J1036">
+        <v>2.51279964505309</v>
+      </c>
+      <c r="K1036">
+        <v>0.594154606872479</v>
+      </c>
+      <c r="L1036">
+        <v>3.40584539312752</v>
+      </c>
+      <c r="M1036">
+        <v>12.6</v>
+      </c>
+      <c r="N1036">
+        <v>13.2</v>
+      </c>
+      <c r="O1036">
+        <v>13.3</v>
+      </c>
+      <c r="P1036">
+        <v>-1</v>
+      </c>
+      <c r="Q1036" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:17">
+      <c r="A1037">
+        <v>600</v>
+      </c>
+      <c r="B1037">
+        <v>960</v>
+      </c>
+      <c r="C1037">
+        <v>1</v>
+      </c>
+      <c r="D1037">
+        <v>1</v>
+      </c>
+      <c r="E1037">
+        <v>238.250000000022</v>
+      </c>
+      <c r="F1037">
+        <v>-416.799999999994</v>
+      </c>
+      <c r="G1037">
+        <v>283.620000000013</v>
+      </c>
+      <c r="H1037">
+        <v>-483.720000000005</v>
+      </c>
+      <c r="I1037">
+        <v>135.246977154323</v>
+      </c>
+      <c r="J1037">
+        <v>2.75302284567629</v>
+      </c>
+      <c r="K1037">
+        <v>3.38441501527862</v>
+      </c>
+      <c r="L1037">
+        <v>3.38441501527862</v>
+      </c>
+      <c r="M1037">
+        <v>12.8</v>
+      </c>
+      <c r="N1037">
+        <v>12.9</v>
+      </c>
+      <c r="O1037">
+        <v>13</v>
+      </c>
+      <c r="P1037">
+        <v>-1</v>
+      </c>
+      <c r="Q1037" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:17">
+      <c r="A1038">
+        <v>960</v>
+      </c>
+      <c r="B1038">
+        <v>10560</v>
+      </c>
+      <c r="C1038">
+        <v>1</v>
+      </c>
+      <c r="D1038">
+        <v>1</v>
+      </c>
+      <c r="E1038">
+        <v>231.299999999947</v>
+      </c>
+      <c r="F1038">
+        <v>-440.900000000006</v>
+      </c>
+      <c r="G1038">
+        <v>2968.68000000003</v>
+      </c>
+      <c r="H1038">
+        <v>-5718.64000000001</v>
+      </c>
+      <c r="I1038">
+        <v>137.31810313084</v>
+      </c>
+      <c r="J1038">
+        <v>137.31810313084</v>
+      </c>
+      <c r="K1038">
+        <v>137.565116467047</v>
+      </c>
+      <c r="L1038">
+        <v>2.56511646704743</v>
+      </c>
+      <c r="M1038">
+        <v>12.3</v>
+      </c>
+      <c r="N1038">
+        <v>12.3</v>
+      </c>
+      <c r="O1038">
+        <v>12.8</v>
+      </c>
+      <c r="P1038">
+        <v>-1</v>
+      </c>
+      <c r="Q1038" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:17">
+      <c r="A1039">
+        <v>2040</v>
+      </c>
+      <c r="B1039">
+        <v>1560</v>
+      </c>
+      <c r="C1039">
+        <v>1</v>
+      </c>
+      <c r="D1039">
+        <v>1</v>
+      </c>
+      <c r="E1039">
+        <v>619.000000000014</v>
+      </c>
+      <c r="F1039">
+        <v>-1165.66999999999</v>
+      </c>
+      <c r="G1039">
+        <v>439.859999999967</v>
+      </c>
+      <c r="H1039">
+        <v>-811.059999999983</v>
+      </c>
+      <c r="I1039">
+        <v>137.030577199895</v>
+      </c>
+      <c r="J1039">
+        <v>1.96942280010492</v>
+      </c>
+      <c r="K1039">
+        <v>2.47218667624233</v>
+      </c>
+      <c r="L1039">
+        <v>2.47218667624233</v>
+      </c>
+      <c r="M1039">
+        <v>12.6</v>
+      </c>
+      <c r="N1039">
+        <v>12.8</v>
+      </c>
+      <c r="O1039">
+        <v>12.8</v>
+      </c>
+      <c r="P1039">
+        <v>-1</v>
+      </c>
+      <c r="Q1039" s="1">
         <v>-1</v>
       </c>
     </row>
